--- a/Project_Artefacts/Audit_Feedback_Actions/Feedback_Action_Audit_1.xlsx
+++ b/Project_Artefacts/Audit_Feedback_Actions/Feedback_Action_Audit_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\2017\Semester 2 2017\4221\Feedbacks\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
   <si>
     <t>Comment:</t>
   </si>
@@ -145,12 +140,114 @@
   </si>
   <si>
     <t>I think they have done well in PA1,2,3 and 5. But they should work on the team collaboration. From the parts contributors in gitlab, I can see that Stephen Patrick Lonergan have 130 commits from 4 August to 6 August. The rest of group members are below 30. It also shows that Wen Jie Mu have done the work from 04 August to 10 August. The rest of group members only shows in a short period. Every team member should join the meeting and do the work with others. They can build up a file. Every member can write their opinions and upload the file. In this way, everyone can see ideas from others. This method also avoids one problem. If someone cannot join the meeting, other group members still know his opinions.</t>
+  </si>
+  <si>
+    <t>Tasks have been assigned more explicitly</t>
+  </si>
+  <si>
+    <t>No actionable feedback</t>
+  </si>
+  <si>
+    <t>Included READMEs. Will look to include a description of relevant works from previous work period</t>
+  </si>
+  <si>
+    <t>README has been clarified. Minutes already summarised</t>
+  </si>
+  <si>
+    <t>Removed redundant files.  Included READMEs in subfolders detailing files</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Will add milestones to Calendar. Will include information about confidential documents.</t>
+  </si>
+  <si>
+    <t>Taks complete</t>
+  </si>
+  <si>
+    <t>Will go through audit criteria next audit.</t>
+  </si>
+  <si>
+    <t>Will be more explicit with project planning. Repository is being restructured to improve logical flow and readability. Schedule is being updated as project is clarified. Gitlab is the expected method, and the inability to display certain files is due to the software. Unfortunately we can't addressed that.</t>
+  </si>
+  <si>
+    <t>Respository has been neatened. Work schedule is being updated gradually.</t>
+  </si>
+  <si>
+    <t>Will communicate with points of contact involved with the project as necessary. Point of contact has been assigned to minimise information fragmentation.</t>
+  </si>
+  <si>
+    <t>Project is being split as necessary, however this is still TBA, so arrangement is not complete. Group distribution is currently being actioned.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Division of labour is now in the process for being distributed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potential resource and cost requirements will be addressed in the coming week. Division of labour is being worked on. </t>
+  </si>
+  <si>
+    <t>Will expand the coverage of documents with summaries.</t>
+  </si>
+  <si>
+    <t>A portion of this work had already been completed. We will work on making this information more clear to the auditors. Work will be becoming more technical in the coming week.</t>
+  </si>
+  <si>
+    <t>Pro-forma details this information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respository has been reorganised. Will include a project summary to give auditors a better understanding. Project documentation is being expanded to cover mentioned documents. </t>
+  </si>
+  <si>
+    <t>Further work will be completed in the coming week. Some documents have already been completed. Potential costs are covered by client, this will be noted. Costs to the team members are assumed to be funded by team members and largely irrelevant - Stromlo is the place of work, and it is assumed that group members can get there.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We will produce project summary document for auditors that is easy to understand. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">See above. Will also direct to relevant files better. </t>
+  </si>
+  <si>
+    <t>Previous group meeting already occurred. Summary was not completed due to lack of value to the client. A form of a summary will be completed, as stated above.</t>
+  </si>
+  <si>
+    <t>Weekly meetings are being included into the schedule. Client expects us to be largely independent, this will be detailed.</t>
+  </si>
+  <si>
+    <t>Are working on clarifying this information.</t>
+  </si>
+  <si>
+    <t>Participation will be detailed further in work log. Meeting contribution is a summary, not all inclusive.</t>
+  </si>
+  <si>
+    <t>We are producing a project summary document. Will further establish goals and expected deliverables.</t>
+  </si>
+  <si>
+    <t>Will clarify decisions clearer.</t>
+  </si>
+  <si>
+    <t>Cleaned up repository</t>
+  </si>
+  <si>
+    <t>These have been planned, but not documented. Will update.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was due to an issue with the SSH of the repository, which has since been addressed. The number of commits is not indicative of thework completed. </t>
+  </si>
+  <si>
+    <t>Regular contact can be established with the previous team due to them working onsite, and one being our tutor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client emails are included for information that they provide, such as indicating meetings or communication which is required for the course. Will correspond with the client and convenor to see if these are necessary, however this form of document keeping is expected to be valuable for traceability. Are developing a work log document to detail work completed by group members. Gitlab was recommended for the course. It is intended to make this more deadable by using PDFs and READMEs. Excels have been left as is, which will require the viewer to download. </t>
+  </si>
+  <si>
+    <t>Most components have been updated as of week 3.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -210,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -223,6 +320,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,7 +630,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -540,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,13 +687,20 @@
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="E3" s="6" t="s">
         <v>28</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="147" customHeight="1" x14ac:dyDescent="0.25">
@@ -604,11 +711,15 @@
       <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -623,15 +734,21 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="E5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -646,15 +763,21 @@
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="E6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -669,15 +792,21 @@
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="E7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -692,15 +821,21 @@
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="E8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -715,15 +850,21 @@
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="E9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -738,15 +879,21 @@
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -761,15 +908,19 @@
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="E11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -784,15 +935,21 @@
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="E12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -807,15 +964,21 @@
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="E13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -830,15 +993,21 @@
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="C14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="E14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>

--- a/Project_Artefacts/Audit_Feedback_Actions/Feedback_Action_Audit_1.xlsx
+++ b/Project_Artefacts/Audit_Feedback_Actions/Feedback_Action_Audit_1.xlsx
@@ -142,9 +142,6 @@
     <t>I think they have done well in PA1,2,3 and 5. But they should work on the team collaboration. From the parts contributors in gitlab, I can see that Stephen Patrick Lonergan have 130 commits from 4 August to 6 August. The rest of group members are below 30. It also shows that Wen Jie Mu have done the work from 04 August to 10 August. The rest of group members only shows in a short period. Every team member should join the meeting and do the work with others. They can build up a file. Every member can write their opinions and upload the file. In this way, everyone can see ideas from others. This method also avoids one problem. If someone cannot join the meeting, other group members still know his opinions.</t>
   </si>
   <si>
-    <t>Tasks have been assigned more explicitly</t>
-  </si>
-  <si>
     <t>No actionable feedback</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>Respository has been neatened. Work schedule is being updated gradually.</t>
   </si>
   <si>
-    <t>Will communicate with points of contact involved with the project as necessary. Point of contact has been assigned to minimise information fragmentation.</t>
-  </si>
-  <si>
     <t>Project is being split as necessary, however this is still TBA, so arrangement is not complete. Group distribution is currently being actioned.</t>
   </si>
   <si>
@@ -211,9 +205,6 @@
     <t>Previous group meeting already occurred. Summary was not completed due to lack of value to the client. A form of a summary will be completed, as stated above.</t>
   </si>
   <si>
-    <t>Weekly meetings are being included into the schedule. Client expects us to be largely independent, this will be detailed.</t>
-  </si>
-  <si>
     <t>Are working on clarifying this information.</t>
   </si>
   <si>
@@ -242,6 +233,15 @@
   </si>
   <si>
     <t>Most components have been updated as of week 3.</t>
+  </si>
+  <si>
+    <t>Weekly meetings are being included into the schedule. Client expects us to be largely independent, this will be detailed, however client meetings will be established.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will communicate with points of contact involved with the project as necessary. Point of contact has been assigned to minimise information fragmentation. Will explore additional contacts that may be able to give additional information. Will also explore assigning contacts. </t>
+  </si>
+  <si>
+    <t>Tasks have been assigned more explicitly. Will detail tasks further - they are currently being assigned as they are determined.</t>
   </si>
 </sst>
 </file>
@@ -630,7 +630,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,20 +687,20 @@
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
+      <c r="B3" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="147" customHeight="1" x14ac:dyDescent="0.25">
@@ -712,13 +712,13 @@
         <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -735,19 +735,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -764,19 +764,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -822,19 +822,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -851,19 +851,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -880,19 +880,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -909,13 +909,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>36</v>
@@ -936,19 +936,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -965,19 +965,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -994,19 +994,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
